--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value853.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value853.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9140096555978685</v>
+        <v>0.6968656182289124</v>
       </c>
       <c r="B1">
-        <v>1.841261241767285</v>
+        <v>1.392574191093445</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.753113269805908</v>
       </c>
       <c r="D1">
-        <v>2.004831129687406</v>
+        <v>3.127187967300415</v>
       </c>
       <c r="E1">
-        <v>1.322697309787058</v>
+        <v>1.712586641311646</v>
       </c>
     </row>
   </sheetData>
